--- a/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
+++ b/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\CRtPaL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D964641-3A0A-4B75-B57C-D3DE9B21D9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC331801-3C56-4B0C-B171-5BA51EB8B568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="4515" windowWidth="20010" windowHeight="18315" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
+    <workbookView xWindow="1515" yWindow="7545" windowWidth="11475" windowHeight="13995" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>CRtPaL Capacity Response to Profits</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>change in capacity</t>
+  </si>
+  <si>
+    <t>Calibrated</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF6A6C-E998-448A-8CB8-3A5997ADF63A}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,42 +514,45 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -604,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
+++ b/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\CRtPaL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CRtPaL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC331801-3C56-4B0C-B171-5BA51EB8B568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC93CB9D-3B03-426D-9B69-8BDC7B8F2AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="7545" windowWidth="11475" windowHeight="13995" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,9 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -610,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +636,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +692,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +700,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +708,7 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,7 +716,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
+++ b/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CRtPaL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC93CB9D-3B03-426D-9B69-8BDC7B8F2AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89ECB29-4049-482F-94C7-C3D0CF03016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>CRtPaL Capacity Response to Profits</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>Calibrated</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -184,13 +202,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +607,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="A19" sqref="A19:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +761,54 @@
       </c>
       <c r="B18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -754,9 +822,11 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -908,6 +978,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
+++ b/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CRtPaL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\CRtPaL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89ECB29-4049-482F-94C7-C3D0CF03016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE167A3E-C33B-4000-B63A-BDAC275D265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,7 +210,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF6A6C-E998-448A-8CB8-3A5997ADF63A}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -609,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -720,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +743,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,55 +759,55 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4">
-        <v>2</v>
+      <c r="B19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4">
-        <v>2</v>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4">
-        <v>2</v>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="4">
-        <v>2</v>
+      <c r="B22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="4">
-        <v>2</v>
+      <c r="B23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="4">
-        <v>2</v>
+      <c r="B24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +978,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="4">
@@ -987,7 +986,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4">
@@ -995,7 +994,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="4">
@@ -1003,7 +1002,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="4">
@@ -1011,7 +1010,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="4">
@@ -1019,7 +1018,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="4">

--- a/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
+++ b/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\CRtPaL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE167A3E-C33B-4000-B63A-BDAC275D265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D78E4BC-2FE0-4592-88DD-F698C9537CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF6A6C-E998-448A-8CB8-3A5997ADF63A}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -608,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
+++ b/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\CRtPaL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CRtPaL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D78E4BC-2FE0-4592-88DD-F698C9537CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D4AD6E-B5FA-4E5B-BE32-BA6CB7611AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>CRtPaL Capacity Response to Profits</t>
   </si>
@@ -150,14 +150,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +180,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,6 +220,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +619,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +756,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +764,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,10 +816,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
         <v>2</v>
       </c>
     </row>
@@ -821,10 +842,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A24"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +1039,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4">
         <v>1</v>
       </c>
     </row>

--- a/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
+++ b/InputData/elec/CRtPaL/Capacity Responses to Profits and Losses.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CRtPaL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D4AD6E-B5FA-4E5B-BE32-BA6CB7611AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B5605D-C652-42AE-A760-7C19F0CF84C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7BF3F63E-6BCA-416F-BEB8-BA0404DF6A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CRtPaL-profits" sheetId="2" r:id="rId2"/>
     <sheet name="CRtPaL-losses" sheetId="3" r:id="rId3"/>
+    <sheet name="CRtPaL-batteries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>CRtPaL Capacity Response to Profits</t>
   </si>
@@ -154,6 +155,30 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>Unit: MWh/($/MWh)</t>
+  </si>
+  <si>
+    <t>grid batteries</t>
+  </si>
+  <si>
+    <t>Power Plants</t>
+  </si>
+  <si>
+    <t>NREL</t>
+  </si>
+  <si>
+    <t>NREL Scenario Viewer</t>
+  </si>
+  <si>
+    <t>Scenario: IRA-BIL Mid-Case</t>
+  </si>
+  <si>
+    <t>https://scenarioviewer.nrel.gov/?project=43691656-4010-4570-8ede-af98ace8ea58&amp;mode=view&amp;layout=Default</t>
+  </si>
+  <si>
+    <t>Grid Batteries Calibration Target (2030)</t>
   </si>
 </sst>
 </file>
@@ -192,12 +217,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -223,6 +254,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,13 +569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF6A6C-E998-448A-8CB8-3A5997ADF63A}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,52 +595,87 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
+      <c r="A19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -845,7 +915,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,4 +1128,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA398FE-243F-453D-8E9E-7422FA1B3BCC}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>3700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>